--- a/tests/report.xlsx
+++ b/tests/report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t>Sheet 1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,115 +61,1011 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob Chen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John Johnson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane Johnson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane Dylan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cindy Zhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dylan Doe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dylan Smith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane Wang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cindy Wang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob Zhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alice Smith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Susie Zhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>27</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John Dylan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mike Dylan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alice Doe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Susie Johnson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>86</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alice Wei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>71</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mike Zhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John Chen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob Wang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Susie Wang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>94</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cindy Johnson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane Doe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>61</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fred Wei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>96</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mike Wang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dylan Chen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob Doe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>66</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fred Smith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane Chen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mike Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob Wei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Susie Doe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alice Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John Wei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob Dylan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>84</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dylan Johnson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alice Johnson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cindy Smith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Susie Chen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mike Smith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alice Zhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob Johnson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fred Zhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cindy Dylan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fred Johnson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dylan Zhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mike Johnson</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fred Chen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mike Chen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>74</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cindy Doe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fred Wang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dylan Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Susie Wei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Susie Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alice Wang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John Zhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alice Chen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FirstName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John@j.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>555-555-5555</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email@email.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>827-705-7040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cindy Chen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>845-56-1576</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>343-8-3818</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>826-275-6865</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>329-475-7598</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>609-662-8317</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>911-50-4236</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John Wang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>495-66-9789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>376-432-6481</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601-930-1686</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>419-241-218</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>433-827-2241</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>769-71-2203</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Susie Smith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>532-677-7331</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cindy Li</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303-295-2799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>675-847-7094</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>649-258-3948</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cindy Wei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>829-726-8807</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>297-787-8448</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>979-920-5907</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>557-30-1381</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dylan Wei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>927-864-2766</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>853-183-7034</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>426-599-1388</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>729-465-8263</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>949-72-5438</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>633-895-4082</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>792-433-1020</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>747-945-8910</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>542-560-2265</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500-565-8007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bob Smith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>658-75-1473</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>990-131-8824</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alice Dylan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46-365-9507</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>630-73-6937</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31-674-8715</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>305-546-6451</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane Zhang</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>303-767-7882</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>146-129-3571</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51-324-5595</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601-407-8872</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dylan Dylan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>97-639-6809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>423-655-6438</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>451-449-747</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>774-72-4040</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>879-626-3678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-392-2417</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>987-107-2838</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>622-719-8267</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>427-984-1941</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>399-883-1231</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>933-442-5106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>588-539-5485</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18-587-4326</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>John Doe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>407-743-8393</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>238-817-5805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>114-830-4363</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>88-83-464</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87-658-1998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Susie Dylan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>648-488-9670</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fred Doe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>266-421-8615</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>575-988-8932</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>164-486-5340</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-901-1136</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>460-80-1601</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140-800-9943</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102-562-3405</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane Smith</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>583-375-2745</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>535-291-1482</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Birthdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Married</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CollegeEducated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon Jun 23 2014 23:59:04 GMT-0400 (EDT)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mike Wei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jane Wei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fred Dylan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of Sales</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>91</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bob Wei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>72</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dylan Wei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>73</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jane Wei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fred Wang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>66</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cindy Wang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cindy Chen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mike Smith</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>94</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mike Wei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jane Smith</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Susie Zhang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alice Johnson</t>
+    <t>65</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -177,611 +1073,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cindy Zhang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jane Dylan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bob Chen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jane Zhang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mike Johnson</t>
+    <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>89</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of signins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>age</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fred Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>John Wang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>74</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dylan Doe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fred Johnson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>82</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mike Zhang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alice Wei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>97</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fred Smith</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>76</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bob Zhang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>78</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jane Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>86</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>83</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FirstName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhoneNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>John</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>John@j.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>555-555-5555</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email@email.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>271-198-1530</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Susie Wang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>58-48-5823</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>593-628-6962</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>656-141-9929</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>842-289-2037</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cindy Wei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>107-457-154</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Birthdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Married</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CollegeEducated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mon Jun 23 2014 23:51:59 GMT-0400 (EDT)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mike Dylan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fred Wei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Susie Johnson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bob Smith</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bob Dylan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mike Wang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jane Wang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fred Zhang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alice Dylan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bob Wang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alice Smith</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Susie Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Susie Wei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jane Johnson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cindy Johnson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bob Johnson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cindy Doe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alice Zhang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cindy Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fred Doe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mike Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Susie Chen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dylan Johnson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bob Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sheet 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of Sales</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>84</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>68</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>93</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmployeeId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Number of signins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>79</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>89</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>81</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>63</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dylan Chen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>John Dylan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>61</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dylan Zhang</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Susie Doe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Jane Doe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>John Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>John Johnson</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cindy Dylan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Susie Dylan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Susie Smith</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bob Doe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Alice Li</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>92</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mike Chen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1285,7 +1629,7 @@
         <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H10" s="6" t="s">
         <v>17</v>
@@ -1329,205 +1673,205 @@
         <v>27</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="F15" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="F16" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="F17" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="F18" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="F19" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="F20" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="F21" s="5" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="F22" s="5" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="F23" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="F24" s="5" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="F25" s="5" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G25" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="F26" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="F27" s="5" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>9</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="F28" s="5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="G28" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="F29" s="5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="F30" s="5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="F31" s="5" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G31" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="F32" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="G32" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="H32" s="6" t="s">
         <v>46</v>
@@ -1535,890 +1879,2086 @@
     </row>
     <row r="33" spans="1:14">
       <c r="F33" s="5" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="G33" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="F34" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="F35" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G35" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="F36" s="5" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="G36" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="F37" s="5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G37" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="F38" s="5" t="s">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="G38" t="s">
-        <v>75</v>
+        <v>6</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="F39" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="F40" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14"/>
-    <row r="42" spans="1:14"/>
-    <row r="43" spans="1:14"/>
+      <c r="F40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G40" t="s">
+        <v>83</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="F41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="F42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="F43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" t="s">
+        <v>40</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="44" spans="1:14">
-      <c r="E44" s="1" t="s">
-        <v>81</v>
+      <c r="F44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:14">
-      <c r="F45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H45" s="4" t="s">
-        <v>84</v>
+      <c r="F45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="F46" s="5" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="F47" s="5" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="G47" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="F48" s="5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="G48" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="F49" s="5" t="s">
-        <v>24</v>
+        <v>99</v>
       </c>
       <c r="G49" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="F50" s="5" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="G50" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="F51" s="5" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s">
+        <v>103</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="F52" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G52" t="s">
+        <v>59</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="F53" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G53" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="F54" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G54" t="s">
+        <v>107</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="F55" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G55" t="s">
+        <v>32</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="F56" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G56" t="s">
+        <v>104</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="F57" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="H51" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
-      <c r="F52" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H52" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14"/>
-    <row r="54" spans="1:14"/>
-    <row r="55" spans="1:14"/>
-    <row r="56" spans="1:14">
-      <c r="E56" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="F57" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I57" s="4" t="s">
-        <v>100</v>
+      <c r="G57" t="s">
+        <v>54</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="F58" s="5" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="G58" t="s">
-        <v>102</v>
-      </c>
-      <c r="H58" t="s">
-        <v>103</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="F59" s="5" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="G59" t="s">
-        <v>102</v>
-      </c>
-      <c r="H59" t="s">
-        <v>104</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:14">
       <c r="F60" s="5" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="G60" t="s">
-        <v>102</v>
-      </c>
-      <c r="H60" t="s">
-        <v>103</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>104</v>
+        <v>32</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="61" spans="1:14">
       <c r="F61" s="5" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G61" t="s">
-        <v>102</v>
-      </c>
-      <c r="H61" t="s">
-        <v>103</v>
-      </c>
-      <c r="I61" s="6" t="s">
-        <v>104</v>
+        <v>20</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="62" spans="1:14">
       <c r="F62" s="5" t="s">
-        <v>106</v>
+        <v>65</v>
       </c>
       <c r="G62" t="s">
-        <v>102</v>
-      </c>
-      <c r="H62" t="s">
-        <v>103</v>
-      </c>
-      <c r="I62" s="6" t="s">
-        <v>104</v>
+        <v>83</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:14">
       <c r="F63" s="5" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="G63" t="s">
-        <v>102</v>
-      </c>
-      <c r="H63" t="s">
-        <v>104</v>
-      </c>
-      <c r="I63" s="6" t="s">
-        <v>104</v>
+        <v>115</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:14">
       <c r="F64" s="5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G64" t="s">
-        <v>102</v>
-      </c>
-      <c r="H64" t="s">
-        <v>103</v>
-      </c>
-      <c r="I64" s="6" t="s">
-        <v>103</v>
+        <v>117</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="F65" s="5" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="G65" t="s">
-        <v>102</v>
-      </c>
-      <c r="H65" t="s">
-        <v>104</v>
-      </c>
-      <c r="I65" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:14">
       <c r="F66" s="5" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="G66" t="s">
-        <v>102</v>
-      </c>
-      <c r="H66" t="s">
-        <v>103</v>
-      </c>
-      <c r="I66" s="6" t="s">
-        <v>103</v>
+        <v>121</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:14">
       <c r="F67" s="5" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="G67" t="s">
-        <v>102</v>
-      </c>
-      <c r="H67" t="s">
-        <v>104</v>
-      </c>
-      <c r="I67" s="6" t="s">
-        <v>103</v>
+        <v>22</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:14">
       <c r="F68" s="5" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="G68" t="s">
-        <v>102</v>
-      </c>
-      <c r="H68" t="s">
-        <v>103</v>
-      </c>
-      <c r="I68" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:14">
       <c r="F69" s="5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G69" t="s">
-        <v>102</v>
-      </c>
-      <c r="H69" t="s">
-        <v>103</v>
-      </c>
-      <c r="I69" s="6" t="s">
-        <v>104</v>
+        <v>43</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="70" spans="1:14">
       <c r="F70" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G70" t="s">
-        <v>102</v>
-      </c>
-      <c r="H70" t="s">
-        <v>103</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:14">
       <c r="F71" s="5" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="G71" t="s">
-        <v>102</v>
-      </c>
-      <c r="H71" t="s">
-        <v>103</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>104</v>
+        <v>126</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="72" spans="1:14">
       <c r="F72" s="5" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="G72" t="s">
-        <v>102</v>
-      </c>
-      <c r="H72" t="s">
-        <v>103</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>104</v>
+        <v>32</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="73" spans="1:14">
       <c r="F73" s="5" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G73" t="s">
-        <v>102</v>
-      </c>
-      <c r="H73" t="s">
-        <v>104</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>104</v>
+        <v>83</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:14">
       <c r="F74" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G74" t="s">
+        <v>28</v>
+      </c>
+      <c r="H74" s="6" t="s">
         <v>110</v>
-      </c>
-      <c r="G74" t="s">
-        <v>102</v>
-      </c>
-      <c r="H74" t="s">
-        <v>103</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:14">
       <c r="F75" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G75" t="s">
-        <v>102</v>
-      </c>
-      <c r="H75" t="s">
-        <v>103</v>
-      </c>
-      <c r="I75" s="6" t="s">
-        <v>104</v>
+        <v>127</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:14">
       <c r="F76" s="5" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="G76" t="s">
-        <v>102</v>
-      </c>
-      <c r="H76" t="s">
-        <v>104</v>
-      </c>
-      <c r="I76" s="6" t="s">
-        <v>104</v>
+        <v>55</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:14">
       <c r="F77" s="5" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="G77" t="s">
-        <v>102</v>
-      </c>
-      <c r="H77" t="s">
-        <v>104</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>104</v>
+        <v>64</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="F78" s="5" t="s">
-        <v>24</v>
+        <v>134</v>
       </c>
       <c r="G78" t="s">
-        <v>102</v>
-      </c>
-      <c r="H78" t="s">
-        <v>104</v>
-      </c>
-      <c r="I78" s="6" t="s">
-        <v>104</v>
+        <v>135</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="79" spans="1:14">
       <c r="F79" s="5" t="s">
-        <v>44</v>
+        <v>111</v>
       </c>
       <c r="G79" t="s">
-        <v>102</v>
-      </c>
-      <c r="H79" t="s">
-        <v>103</v>
-      </c>
-      <c r="I79" s="6" t="s">
-        <v>103</v>
+        <v>12</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="F80" s="5" t="s">
-        <v>109</v>
+        <v>137</v>
       </c>
       <c r="G80" t="s">
-        <v>102</v>
-      </c>
-      <c r="H80" t="s">
-        <v>104</v>
-      </c>
-      <c r="I80" s="6" t="s">
-        <v>104</v>
+        <v>138</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:14">
       <c r="F81" s="5" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="G81" t="s">
-        <v>102</v>
-      </c>
-      <c r="H81" t="s">
-        <v>103</v>
-      </c>
-      <c r="I81" s="6" t="s">
-        <v>103</v>
+        <v>110</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="82" spans="1:14">
       <c r="F82" s="5" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="G82" t="s">
-        <v>102</v>
-      </c>
-      <c r="H82" t="s">
-        <v>103</v>
-      </c>
-      <c r="I82" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:14">
       <c r="F83" s="5" t="s">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="G83" t="s">
-        <v>102</v>
-      </c>
-      <c r="H83" t="s">
-        <v>103</v>
-      </c>
-      <c r="I83" s="6" t="s">
-        <v>103</v>
+        <v>11</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:14">
       <c r="F84" s="5" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="G84" t="s">
-        <v>102</v>
-      </c>
-      <c r="H84" t="s">
         <v>104</v>
       </c>
-      <c r="I84" s="6" t="s">
-        <v>103</v>
+      <c r="H84" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="85" spans="1:14">
       <c r="F85" s="5" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="G85" t="s">
-        <v>102</v>
-      </c>
-      <c r="H85" t="s">
-        <v>104</v>
-      </c>
-      <c r="I85" s="6" t="s">
-        <v>103</v>
+        <v>83</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:14">
       <c r="F86" s="5" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="G86" t="s">
-        <v>102</v>
-      </c>
-      <c r="H86" t="s">
-        <v>104</v>
-      </c>
-      <c r="I86" s="6" t="s">
-        <v>103</v>
+        <v>38</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="87" spans="1:14">
       <c r="F87" s="5" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="G87" t="s">
-        <v>102</v>
-      </c>
-      <c r="H87" t="s">
-        <v>104</v>
-      </c>
-      <c r="I87" s="6" t="s">
-        <v>103</v>
+        <v>78</v>
+      </c>
+      <c r="H87" s="6" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:14">
       <c r="F88" s="5" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="G88" t="s">
-        <v>102</v>
-      </c>
-      <c r="H88" t="s">
-        <v>104</v>
-      </c>
-      <c r="I88" s="6" t="s">
-        <v>104</v>
+        <v>85</v>
+      </c>
+      <c r="H88" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:14">
       <c r="F89" s="5" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="G89" t="s">
-        <v>102</v>
-      </c>
-      <c r="H89" t="s">
-        <v>103</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>103</v>
+        <v>19</v>
+      </c>
+      <c r="H89" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="90" spans="1:14">
       <c r="F90" s="5" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="G90" t="s">
-        <v>102</v>
-      </c>
-      <c r="H90" t="s">
-        <v>104</v>
-      </c>
-      <c r="I90" s="6" t="s">
-        <v>103</v>
+        <v>8</v>
+      </c>
+      <c r="H90" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:14">
       <c r="F91" s="5" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G91" t="s">
-        <v>102</v>
-      </c>
-      <c r="H91" t="s">
-        <v>104</v>
-      </c>
-      <c r="I91" s="6" t="s">
-        <v>104</v>
+        <v>146</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="92" spans="1:14">
       <c r="F92" s="5" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="G92" t="s">
-        <v>102</v>
-      </c>
-      <c r="H92" t="s">
-        <v>103</v>
-      </c>
-      <c r="I92" s="6" t="s">
-        <v>104</v>
+        <v>117</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="93" spans="1:14">
       <c r="F93" s="5" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="G93" t="s">
-        <v>102</v>
-      </c>
-      <c r="H93" t="s">
-        <v>103</v>
-      </c>
-      <c r="I93" s="6" t="s">
-        <v>104</v>
+        <v>148</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:14">
       <c r="F94" s="5" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G94" t="s">
-        <v>102</v>
-      </c>
-      <c r="H94" t="s">
-        <v>104</v>
-      </c>
-      <c r="I94" s="6" t="s">
-        <v>104</v>
+        <v>98</v>
+      </c>
+      <c r="H94" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="95" spans="1:14">
       <c r="F95" s="5" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="G95" t="s">
-        <v>102</v>
-      </c>
-      <c r="H95" t="s">
-        <v>104</v>
-      </c>
-      <c r="I95" s="6" t="s">
-        <v>104</v>
+        <v>29</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:14">
       <c r="F96" s="5" t="s">
-        <v>58</v>
+        <v>149</v>
       </c>
       <c r="G96" t="s">
-        <v>102</v>
-      </c>
-      <c r="H96" t="s">
-        <v>103</v>
-      </c>
-      <c r="I96" s="6" t="s">
-        <v>103</v>
+        <v>19</v>
+      </c>
+      <c r="H96" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:14">
       <c r="F97" s="5" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="G97" t="s">
-        <v>102</v>
-      </c>
-      <c r="H97" t="s">
-        <v>103</v>
-      </c>
-      <c r="I97" s="6" t="s">
-        <v>103</v>
+        <v>58</v>
+      </c>
+      <c r="H97" s="6" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:14">
       <c r="F98" s="5" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="G98" t="s">
-        <v>102</v>
-      </c>
-      <c r="H98" t="s">
-        <v>103</v>
-      </c>
-      <c r="I98" s="6" t="s">
-        <v>104</v>
+        <v>94</v>
+      </c>
+      <c r="H98" s="6" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:14">
       <c r="F99" s="5" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="G99" t="s">
-        <v>102</v>
-      </c>
-      <c r="H99" t="s">
-        <v>104</v>
-      </c>
-      <c r="I99" s="6" t="s">
-        <v>103</v>
+        <v>28</v>
+      </c>
+      <c r="H99" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:14">
       <c r="F100" s="5" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="G100" t="s">
-        <v>102</v>
-      </c>
-      <c r="H100" t="s">
-        <v>103</v>
-      </c>
-      <c r="I100" s="6" t="s">
-        <v>103</v>
+        <v>135</v>
+      </c>
+      <c r="H100" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:14">
-      <c r="F101" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="G101" t="s">
-        <v>102</v>
-      </c>
-      <c r="H101" t="s">
-        <v>103</v>
-      </c>
-      <c r="I101" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14">
-      <c r="F102" s="5" t="s">
+      <c r="F101" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H101" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14"/>
+    <row r="103" spans="1:14"/>
+    <row r="104" spans="1:14"/>
+    <row r="105" spans="1:14">
+      <c r="E105" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="F106" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H106" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="F107" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G107" t="s">
+        <v>157</v>
+      </c>
+      <c r="H107" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="F108" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G108" t="s">
+        <v>159</v>
+      </c>
+      <c r="H108" s="6" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="F109" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G109" t="s">
+        <v>159</v>
+      </c>
+      <c r="H109" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="F110" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G110" t="s">
+        <v>159</v>
+      </c>
+      <c r="H110" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="F111" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G111" t="s">
+        <v>159</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="F112" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G112" t="s">
+        <v>159</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="F113" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G113" t="s">
+        <v>159</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="F114" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G114" t="s">
+        <v>159</v>
+      </c>
+      <c r="H114" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="F115" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G115" t="s">
+        <v>159</v>
+      </c>
+      <c r="H115" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="F116" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G116" t="s">
+        <v>159</v>
+      </c>
+      <c r="H116" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="F117" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G117" t="s">
+        <v>159</v>
+      </c>
+      <c r="H117" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="F118" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" t="s">
+        <v>159</v>
+      </c>
+      <c r="H118" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="F119" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" t="s">
+        <v>159</v>
+      </c>
+      <c r="H119" s="6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="F120" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G120" t="s">
+        <v>159</v>
+      </c>
+      <c r="H120" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="F121" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G121" t="s">
+        <v>159</v>
+      </c>
+      <c r="H121" s="6" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="F122" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G122" t="s">
+        <v>159</v>
+      </c>
+      <c r="H122" s="6" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="F123" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G123" t="s">
+        <v>159</v>
+      </c>
+      <c r="H123" s="6" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="F124" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G124" t="s">
+        <v>159</v>
+      </c>
+      <c r="H124" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="F125" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G125" t="s">
+        <v>159</v>
+      </c>
+      <c r="H125" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="F126" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G126" t="s">
+        <v>159</v>
+      </c>
+      <c r="H126" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="F127" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G127" t="s">
+        <v>159</v>
+      </c>
+      <c r="H127" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="F128" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G128" t="s">
+        <v>159</v>
+      </c>
+      <c r="H128" s="6" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="F129" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G129" t="s">
+        <v>159</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="F130" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G130" t="s">
+        <v>159</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="F131" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G131" t="s">
+        <v>159</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="F132" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G132" t="s">
+        <v>159</v>
+      </c>
+      <c r="H132" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="F133" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G133" t="s">
+        <v>159</v>
+      </c>
+      <c r="H133" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="F134" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G134" t="s">
+        <v>159</v>
+      </c>
+      <c r="H134" s="6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="F135" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G135" t="s">
+        <v>159</v>
+      </c>
+      <c r="H135" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="F136" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G136" t="s">
+        <v>159</v>
+      </c>
+      <c r="H136" s="6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="F137" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G137" t="s">
+        <v>159</v>
+      </c>
+      <c r="H137" s="6" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="F138" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G138" t="s">
+        <v>159</v>
+      </c>
+      <c r="H138" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="F139" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G139" t="s">
+        <v>159</v>
+      </c>
+      <c r="H139" s="6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="F140" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G140" t="s">
+        <v>159</v>
+      </c>
+      <c r="H140" s="6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="F141" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G141" t="s">
+        <v>159</v>
+      </c>
+      <c r="H141" s="6" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="F142" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G142" t="s">
+        <v>159</v>
+      </c>
+      <c r="H142" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="F143" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G143" t="s">
+        <v>159</v>
+      </c>
+      <c r="H143" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="F144" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G144" t="s">
+        <v>159</v>
+      </c>
+      <c r="H144" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="F145" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G145" t="s">
+        <v>159</v>
+      </c>
+      <c r="H145" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="F146" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G146" t="s">
+        <v>159</v>
+      </c>
+      <c r="H146" s="6" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="F147" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G147" t="s">
+        <v>159</v>
+      </c>
+      <c r="H147" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="F148" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G148" t="s">
+        <v>159</v>
+      </c>
+      <c r="H148" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="F149" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G149" t="s">
+        <v>159</v>
+      </c>
+      <c r="H149" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="F150" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G150" t="s">
+        <v>159</v>
+      </c>
+      <c r="H150" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="F151" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G151" t="s">
+        <v>159</v>
+      </c>
+      <c r="H151" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14">
+      <c r="F152" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G152" t="s">
+        <v>159</v>
+      </c>
+      <c r="H152" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14">
+      <c r="F153" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G153" t="s">
+        <v>159</v>
+      </c>
+      <c r="H153" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14">
+      <c r="F154" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G154" t="s">
+        <v>159</v>
+      </c>
+      <c r="H154" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14">
+      <c r="F155" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G155" t="s">
+        <v>159</v>
+      </c>
+      <c r="H155" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14">
+      <c r="F156" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G156" t="s">
+        <v>159</v>
+      </c>
+      <c r="H156" s="6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14">
+      <c r="F157" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="G157" t="s">
+        <v>159</v>
+      </c>
+      <c r="H157" s="6" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14">
+      <c r="F158" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G158" t="s">
+        <v>159</v>
+      </c>
+      <c r="H158" s="6" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14">
+      <c r="F159" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G159" t="s">
+        <v>159</v>
+      </c>
+      <c r="H159" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14">
+      <c r="F160" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G160" t="s">
+        <v>159</v>
+      </c>
+      <c r="H160" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14">
+      <c r="F161" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G161" t="s">
+        <v>159</v>
+      </c>
+      <c r="H161" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14">
+      <c r="F162" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G162" t="s">
+        <v>159</v>
+      </c>
+      <c r="H162" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14">
+      <c r="F163" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="G163" t="s">
+        <v>159</v>
+      </c>
+      <c r="H163" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14">
+      <c r="F164" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G164" t="s">
+        <v>159</v>
+      </c>
+      <c r="H164" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14">
+      <c r="F165" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G165" t="s">
+        <v>159</v>
+      </c>
+      <c r="H165" s="6" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14">
+      <c r="F166" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G166" t="s">
+        <v>159</v>
+      </c>
+      <c r="H166" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14">
+      <c r="F167" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G167" t="s">
+        <v>159</v>
+      </c>
+      <c r="H167" s="6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14">
+      <c r="F168" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G168" t="s">
+        <v>159</v>
+      </c>
+      <c r="H168" s="6" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14">
+      <c r="F169" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G169" t="s">
+        <v>159</v>
+      </c>
+      <c r="H169" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14">
+      <c r="F170" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G170" t="s">
+        <v>159</v>
+      </c>
+      <c r="H170" s="6" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14">
+      <c r="F171" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G171" t="s">
+        <v>159</v>
+      </c>
+      <c r="H171" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14">
+      <c r="F172" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G172" t="s">
+        <v>159</v>
+      </c>
+      <c r="H172" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14">
+      <c r="F173" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G173" t="s">
+        <v>159</v>
+      </c>
+      <c r="H173" s="6" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14">
+      <c r="F174" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G174" t="s">
+        <v>159</v>
+      </c>
+      <c r="H174" s="6" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14">
+      <c r="F175" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G175" t="s">
+        <v>159</v>
+      </c>
+      <c r="H175" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14">
+      <c r="F176" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H176" s="8" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14"/>
+    <row r="178" spans="1:14"/>
+    <row r="179" spans="1:14"/>
+    <row r="180" spans="1:14">
+      <c r="E180" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14">
+      <c r="F181" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="I181" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14">
+      <c r="F182" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="G182" t="s">
+        <v>248</v>
+      </c>
+      <c r="H182" t="s">
+        <v>249</v>
+      </c>
+      <c r="I182" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14">
+      <c r="F183" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G183" t="s">
+        <v>248</v>
+      </c>
+      <c r="H183" t="s">
+        <v>249</v>
+      </c>
+      <c r="I183" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14">
+      <c r="F184" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G184" t="s">
+        <v>248</v>
+      </c>
+      <c r="H184" t="s">
+        <v>250</v>
+      </c>
+      <c r="I184" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14">
+      <c r="F185" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G185" t="s">
+        <v>248</v>
+      </c>
+      <c r="H185" t="s">
+        <v>250</v>
+      </c>
+      <c r="I185" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14">
+      <c r="F186" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="G186" t="s">
+        <v>248</v>
+      </c>
+      <c r="H186" t="s">
+        <v>249</v>
+      </c>
+      <c r="I186" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14">
+      <c r="F187" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="G102" t="s">
-        <v>102</v>
-      </c>
-      <c r="H102" t="s">
-        <v>104</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14">
-      <c r="F103" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" t="s">
-        <v>102</v>
-      </c>
-      <c r="H103" t="s">
-        <v>104</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
-      <c r="F104" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G104" t="s">
-        <v>102</v>
-      </c>
-      <c r="H104" t="s">
-        <v>104</v>
-      </c>
-      <c r="I104" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
-      <c r="F105" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I105" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14"/>
-    <row r="107" spans="1:14"/>
-    <row r="108" spans="1:14"/>
-    <row r="109" spans="1:14"/>
-    <row r="110" spans="1:14"/>
-    <row r="111" spans="1:14"/>
-    <row r="112" spans="1:14"/>
-    <row r="113" spans="1:14"/>
+      <c r="G187" t="s">
+        <v>248</v>
+      </c>
+      <c r="H187" t="s">
+        <v>250</v>
+      </c>
+      <c r="I187" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14">
+      <c r="F188" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G188" t="s">
+        <v>248</v>
+      </c>
+      <c r="H188" t="s">
+        <v>250</v>
+      </c>
+      <c r="I188" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14">
+      <c r="F189" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G189" t="s">
+        <v>248</v>
+      </c>
+      <c r="H189" t="s">
+        <v>250</v>
+      </c>
+      <c r="I189" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14">
+      <c r="F190" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G190" t="s">
+        <v>248</v>
+      </c>
+      <c r="H190" t="s">
+        <v>249</v>
+      </c>
+      <c r="I190" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14">
+      <c r="F191" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G191" t="s">
+        <v>248</v>
+      </c>
+      <c r="H191" t="s">
+        <v>249</v>
+      </c>
+      <c r="I191" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14">
+      <c r="F192" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G192" t="s">
+        <v>248</v>
+      </c>
+      <c r="H192" t="s">
+        <v>249</v>
+      </c>
+      <c r="I192" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14">
+      <c r="F193" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G193" t="s">
+        <v>248</v>
+      </c>
+      <c r="H193" t="s">
+        <v>249</v>
+      </c>
+      <c r="I193" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14">
+      <c r="F194" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G194" t="s">
+        <v>248</v>
+      </c>
+      <c r="H194" t="s">
+        <v>249</v>
+      </c>
+      <c r="I194" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14">
+      <c r="F195" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G195" t="s">
+        <v>248</v>
+      </c>
+      <c r="H195" t="s">
+        <v>249</v>
+      </c>
+      <c r="I195" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14">
+      <c r="F196" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G196" t="s">
+        <v>248</v>
+      </c>
+      <c r="H196" t="s">
+        <v>250</v>
+      </c>
+      <c r="I196" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14">
+      <c r="F197" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G197" t="s">
+        <v>248</v>
+      </c>
+      <c r="H197" t="s">
+        <v>249</v>
+      </c>
+      <c r="I197" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14">
+      <c r="F198" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G198" t="s">
+        <v>248</v>
+      </c>
+      <c r="H198" t="s">
+        <v>250</v>
+      </c>
+      <c r="I198" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14">
+      <c r="F199" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G199" t="s">
+        <v>248</v>
+      </c>
+      <c r="H199" t="s">
+        <v>250</v>
+      </c>
+      <c r="I199" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14">
+      <c r="F200" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G200" t="s">
+        <v>248</v>
+      </c>
+      <c r="H200" t="s">
+        <v>249</v>
+      </c>
+      <c r="I200" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
+      <c r="F201" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G201" t="s">
+        <v>248</v>
+      </c>
+      <c r="H201" t="s">
+        <v>249</v>
+      </c>
+      <c r="I201" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
+      <c r="F202" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G202" t="s">
+        <v>248</v>
+      </c>
+      <c r="H202" t="s">
+        <v>249</v>
+      </c>
+      <c r="I202" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
+      <c r="F203" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G203" t="s">
+        <v>248</v>
+      </c>
+      <c r="H203" t="s">
+        <v>250</v>
+      </c>
+      <c r="I203" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
+      <c r="F204" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G204" t="s">
+        <v>248</v>
+      </c>
+      <c r="H204" t="s">
+        <v>250</v>
+      </c>
+      <c r="I204" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
+      <c r="F205" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G205" t="s">
+        <v>248</v>
+      </c>
+      <c r="H205" t="s">
+        <v>249</v>
+      </c>
+      <c r="I205" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
+      <c r="F206" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G206" t="s">
+        <v>248</v>
+      </c>
+      <c r="H206" t="s">
+        <v>249</v>
+      </c>
+      <c r="I206" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
+      <c r="F207" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G207" t="s">
+        <v>248</v>
+      </c>
+      <c r="H207" t="s">
+        <v>249</v>
+      </c>
+      <c r="I207" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
+      <c r="F208" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G208" t="s">
+        <v>248</v>
+      </c>
+      <c r="H208" t="s">
+        <v>249</v>
+      </c>
+      <c r="I208" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
+      <c r="F209" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G209" t="s">
+        <v>248</v>
+      </c>
+      <c r="H209" t="s">
+        <v>250</v>
+      </c>
+      <c r="I209" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
+      <c r="F210" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G210" t="s">
+        <v>248</v>
+      </c>
+      <c r="H210" t="s">
+        <v>250</v>
+      </c>
+      <c r="I210" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
+      <c r="F211" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G211" t="s">
+        <v>248</v>
+      </c>
+      <c r="H211" t="s">
+        <v>249</v>
+      </c>
+      <c r="I211" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
+      <c r="F212" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G212" t="s">
+        <v>248</v>
+      </c>
+      <c r="H212" t="s">
+        <v>250</v>
+      </c>
+      <c r="I212" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
+      <c r="F213" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G213" t="s">
+        <v>248</v>
+      </c>
+      <c r="H213" t="s">
+        <v>249</v>
+      </c>
+      <c r="I213" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
+      <c r="F214" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="G214" t="s">
+        <v>248</v>
+      </c>
+      <c r="H214" t="s">
+        <v>250</v>
+      </c>
+      <c r="I214" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
+      <c r="F215" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G215" t="s">
+        <v>248</v>
+      </c>
+      <c r="H215" t="s">
+        <v>249</v>
+      </c>
+      <c r="I215" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
+      <c r="F216" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G216" t="s">
+        <v>248</v>
+      </c>
+      <c r="H216" t="s">
+        <v>250</v>
+      </c>
+      <c r="I216" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
+      <c r="F217" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I217" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14"/>
+    <row r="219" spans="1:14"/>
+    <row r="220" spans="1:14"/>
+    <row r="221" spans="1:14"/>
+    <row r="222" spans="1:14"/>
+    <row r="223" spans="1:14"/>
+    <row r="224" spans="1:14"/>
+    <row r="225" spans="1:14"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2436,1232 +3976,1904 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="F1" s="1" t="s">
-        <v>129</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:12"/>
     <row r="3" spans="1:12"/>
     <row r="4" spans="1:12">
       <c r="E4" s="1" t="s">
-        <v>130</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="F5" s="2" t="s">
-        <v>131</v>
+        <v>256</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>132</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="F6" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="F7" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="F8" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="F9" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="F10" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="F11" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="F12" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>136</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="F13" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>33</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="F14" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>56</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="F15" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="F16" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="F17" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>17</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="F18" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>17</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="F19" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="F20" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>138</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="F21" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="F22" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="F23" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="F24" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="F25" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="F26" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="F27" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>142</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:12">
       <c r="F28" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:12">
       <c r="F29" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="F30" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:12">
       <c r="F31" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>135</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="1:12">
       <c r="F32" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:12">
       <c r="F33" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="F34" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>144</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:12">
       <c r="F35" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>137</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:12">
       <c r="F36" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>8</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:12">
       <c r="F37" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:12">
       <c r="F38" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:12">
       <c r="F39" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40" spans="1:12">
       <c r="F40" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="F41" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:12">
       <c r="F42" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:12">
       <c r="F43" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:12">
       <c r="F44" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>147</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:12">
       <c r="F45" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:12">
       <c r="F46" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>140</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47" spans="1:12">
       <c r="F47" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:12">
       <c r="F48" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>54</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:12">
       <c r="F49" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>149</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:12">
       <c r="F50" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>30</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="F51" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G51" s="6" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:12">
       <c r="F52" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:12">
       <c r="F53" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:12">
       <c r="F54" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="F55" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>150</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="1:12">
       <c r="F56" s="5" t="s">
-        <v>102</v>
+        <v>248</v>
       </c>
       <c r="G56" s="6" t="s">
-        <v>151</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:12">
-      <c r="F57" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12"/>
-    <row r="59" spans="1:12"/>
-    <row r="60" spans="1:12"/>
+      <c r="F57" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="F58" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="F59" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="F60" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
     <row r="61" spans="1:12">
-      <c r="E61" s="1" t="s">
-        <v>153</v>
+      <c r="F61" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:12">
-      <c r="F62" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>155</v>
+      <c r="F62" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:12">
       <c r="F63" s="5" t="s">
-        <v>156</v>
+        <v>248</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>152</v>
+        <v>41</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="F64" s="5" t="s">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:12">
       <c r="F65" s="5" t="s">
-        <v>26</v>
+        <v>248</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>42</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:12">
       <c r="F66" s="5" t="s">
-        <v>30</v>
+        <v>248</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:12">
       <c r="F67" s="5" t="s">
-        <v>35</v>
+        <v>248</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>159</v>
+        <v>74</v>
       </c>
     </row>
     <row r="68" spans="1:12">
       <c r="F68" s="5" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="69" spans="1:12">
       <c r="F69" s="5" t="s">
-        <v>161</v>
+        <v>248</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:12">
       <c r="F70" s="5" t="s">
-        <v>143</v>
+        <v>248</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>162</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:12">
       <c r="F71" s="5" t="s">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="G71" s="6" t="s">
-        <v>75</v>
+        <v>264</v>
       </c>
     </row>
     <row r="72" spans="1:12">
       <c r="F72" s="5" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="G72" s="6" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="F73" s="5" t="s">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="G73" s="6" t="s">
-        <v>133</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:12">
       <c r="F74" s="5" t="s">
-        <v>163</v>
+        <v>248</v>
       </c>
       <c r="G74" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="F75" s="5" t="s">
-        <v>20</v>
+        <v>248</v>
       </c>
       <c r="G75" s="6" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="F76" s="5" t="s">
-        <v>71</v>
+        <v>248</v>
       </c>
       <c r="G76" s="6" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="F77" s="5" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="G77" s="6" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:12">
       <c r="F78" s="5" t="s">
-        <v>46</v>
+        <v>248</v>
       </c>
       <c r="G78" s="6" t="s">
-        <v>147</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:12">
       <c r="F79" s="5" t="s">
-        <v>165</v>
+        <v>248</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:12">
       <c r="F80" s="5" t="s">
-        <v>137</v>
+        <v>248</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
     </row>
     <row r="81" spans="1:12">
       <c r="F81" s="5" t="s">
-        <v>57</v>
+        <v>248</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>151</v>
+        <v>266</v>
       </c>
     </row>
     <row r="82" spans="1:12">
       <c r="F82" s="5" t="s">
-        <v>146</v>
+        <v>248</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>31</v>
+        <v>138</v>
       </c>
     </row>
     <row r="83" spans="1:12">
       <c r="F83" s="5" t="s">
-        <v>167</v>
+        <v>248</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>141</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:12">
       <c r="F84" s="5" t="s">
-        <v>138</v>
+        <v>248</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>159</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:12">
       <c r="F85" s="5" t="s">
-        <v>133</v>
+        <v>248</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>60</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:12">
       <c r="F86" s="5" t="s">
-        <v>151</v>
+        <v>248</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>79</v>
+        <v>259</v>
       </c>
     </row>
     <row r="87" spans="1:12">
       <c r="F87" s="5" t="s">
-        <v>142</v>
+        <v>248</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>134</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:12">
       <c r="F88" s="5" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="89" spans="1:12">
       <c r="F89" s="5" t="s">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
     </row>
     <row r="90" spans="1:12">
       <c r="F90" s="5" t="s">
-        <v>141</v>
+        <v>248</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>78</v>
+        <v>263</v>
       </c>
     </row>
     <row r="91" spans="1:12">
       <c r="F91" s="5" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:12">
       <c r="F92" s="5" t="s">
-        <v>170</v>
+        <v>248</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:12">
       <c r="F93" s="5" t="s">
-        <v>166</v>
+        <v>248</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>146</v>
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:12">
       <c r="F94" s="5" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>166</v>
+        <v>55</v>
       </c>
     </row>
     <row r="95" spans="1:12">
       <c r="F95" s="5" t="s">
-        <v>171</v>
+        <v>248</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>172</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:12">
       <c r="F96" s="5" t="s">
-        <v>80</v>
+        <v>248</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>7</v>
+        <v>261</v>
       </c>
     </row>
     <row r="97" spans="1:12">
       <c r="F97" s="5" t="s">
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="G97" s="6" t="s">
-        <v>141</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:12">
-      <c r="F98" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12"/>
-    <row r="100" spans="1:12"/>
-    <row r="101" spans="1:12"/>
+      <c r="F98" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="F99" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="F100" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="F101" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
     <row r="102" spans="1:12">
-      <c r="E102" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12">
-      <c r="F103" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G103" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12">
-      <c r="F104" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G104" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12">
-      <c r="F105" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G105" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
+      <c r="F102" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12"/>
+    <row r="104" spans="1:12"/>
+    <row r="105" spans="1:12"/>
     <row r="106" spans="1:12">
-      <c r="F106" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="G106" s="6" t="s">
-        <v>138</v>
+      <c r="E106" s="1" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="1:12">
-      <c r="F107" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="G107" s="6" t="s">
-        <v>171</v>
+      <c r="F107" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="108" spans="1:12">
       <c r="F108" s="5" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G108" s="6" t="s">
-        <v>6</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:12">
       <c r="F109" s="5" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:12">
       <c r="F110" s="5" t="s">
-        <v>177</v>
+        <v>121</v>
       </c>
       <c r="G110" s="6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:12">
       <c r="F111" s="5" t="s">
-        <v>121</v>
+        <v>271</v>
       </c>
       <c r="G111" s="6" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
     </row>
     <row r="112" spans="1:12">
       <c r="F112" s="5" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="G112" s="6" t="s">
-        <v>161</v>
+        <v>117</v>
       </c>
     </row>
     <row r="113" spans="1:12">
       <c r="F113" s="5" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="G113" s="6" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
     </row>
     <row r="114" spans="1:12">
       <c r="F114" s="5" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="G114" s="6" t="s">
-        <v>74</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:12">
       <c r="F115" s="5" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="G115" s="6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="1:12">
       <c r="F116" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G116" s="6" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:12">
       <c r="F117" s="5" t="s">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c r="G117" s="6" t="s">
-        <v>149</v>
+        <v>91</v>
       </c>
     </row>
     <row r="118" spans="1:12">
       <c r="F118" s="5" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>138</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="1:12">
       <c r="F119" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G119" s="6" t="s">
-        <v>158</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:12">
       <c r="F120" s="5" t="s">
-        <v>24</v>
+        <v>272</v>
       </c>
       <c r="G120" s="6" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" spans="1:12">
       <c r="F121" s="5" t="s">
-        <v>59</v>
+        <v>121</v>
       </c>
       <c r="G121" s="6" t="s">
-        <v>31</v>
+        <v>273</v>
       </c>
     </row>
     <row r="122" spans="1:12">
       <c r="F122" s="5" t="s">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="G122" s="6" t="s">
-        <v>173</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:12">
       <c r="F123" s="5" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="G123" s="6" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" spans="1:12">
       <c r="F124" s="5" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="G124" s="6" t="s">
-        <v>7</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125" spans="1:12">
       <c r="F125" s="5" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126" spans="1:12">
       <c r="F126" s="5" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="G126" s="6" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
     </row>
     <row r="127" spans="1:12">
       <c r="F127" s="5" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="128" spans="1:12">
       <c r="F128" s="5" t="s">
-        <v>111</v>
+        <v>45</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="129" spans="1:12">
       <c r="F129" s="5" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="G129" s="6" t="s">
-        <v>168</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:12">
       <c r="F130" s="5" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="G130" s="6" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
     </row>
     <row r="131" spans="1:12">
       <c r="F131" s="5" t="s">
-        <v>183</v>
+        <v>22</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="132" spans="1:12">
       <c r="F132" s="5" t="s">
-        <v>184</v>
+        <v>11</v>
       </c>
       <c r="G132" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="133" spans="1:12">
       <c r="F133" s="5" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="G133" s="6" t="s">
-        <v>157</v>
+        <v>64</v>
       </c>
     </row>
     <row r="134" spans="1:12">
       <c r="F134" s="5" t="s">
-        <v>121</v>
+        <v>272</v>
       </c>
       <c r="G134" s="6" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
     </row>
     <row r="135" spans="1:12">
       <c r="F135" s="5" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G135" s="6" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:12">
       <c r="F136" s="5" t="s">
-        <v>185</v>
+        <v>41</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="137" spans="1:12">
       <c r="F137" s="5" t="s">
-        <v>186</v>
+        <v>52</v>
       </c>
       <c r="G137" s="6" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
     </row>
     <row r="138" spans="1:12">
       <c r="F138" s="5" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>31</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139" spans="1:12">
       <c r="F139" s="5" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="G139" s="6" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
     </row>
     <row r="140" spans="1:12">
       <c r="F140" s="5" t="s">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="G140" s="6" t="s">
-        <v>142</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:12">
       <c r="F141" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="142" spans="1:12">
       <c r="F142" s="5" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="G142" s="6" t="s">
-        <v>160</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:12">
       <c r="F143" s="5" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
     </row>
     <row r="144" spans="1:12">
       <c r="F144" s="5" t="s">
-        <v>21</v>
+        <v>266</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
     </row>
     <row r="145" spans="1:12">
       <c r="F145" s="5" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
       <c r="G145" s="6" t="s">
-        <v>189</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146" spans="1:12">
       <c r="F146" s="5" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="G146" s="6" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
     </row>
     <row r="147" spans="1:12">
       <c r="F147" s="5" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
     </row>
     <row r="148" spans="1:12">
       <c r="F148" s="5" t="s">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="G148" s="6" t="s">
-        <v>80</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:12">
       <c r="F149" s="5" t="s">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150" spans="1:12">
       <c r="F150" s="5" t="s">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>143</v>
+        <v>25</v>
       </c>
     </row>
     <row r="151" spans="1:12">
       <c r="F151" s="5" t="s">
-        <v>181</v>
+        <v>104</v>
       </c>
       <c r="G151" s="6" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
     </row>
     <row r="152" spans="1:12">
       <c r="F152" s="5" t="s">
-        <v>190</v>
+        <v>263</v>
       </c>
       <c r="G152" s="6" t="s">
-        <v>191</v>
+        <v>71</v>
       </c>
     </row>
     <row r="153" spans="1:12">
       <c r="F153" s="5" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
     </row>
     <row r="154" spans="1:12">
       <c r="F154" s="5" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
     </row>
     <row r="155" spans="1:12">
       <c r="F155" s="5" t="s">
-        <v>112</v>
+        <v>271</v>
       </c>
       <c r="G155" s="6" t="s">
-        <v>161</v>
+        <v>103</v>
       </c>
     </row>
     <row r="156" spans="1:12">
       <c r="F156" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G156" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="F157" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G157" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12"/>
+    <row r="159" spans="1:12"/>
+    <row r="160" spans="1:12"/>
+    <row r="161" spans="1:12">
+      <c r="E161" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="F162" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="F163" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G163" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="F164" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G164" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="F165" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G165" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="F166" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G166" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="F167" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G167" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="F168" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="F169" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="F170" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G170" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="F171" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G171" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="F172" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G172" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="F173" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="G173" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="F174" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G174" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="F175" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G175" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="F176" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G176" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="F177" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G177" s="6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="F178" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G178" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="F179" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G179" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="F180" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G180" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="F181" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G181" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="F182" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G182" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="F183" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G183" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="F184" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G184" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="F185" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G185" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="F186" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G186" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="F187" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G187" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="F188" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G188" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="F189" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G189" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="F190" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G190" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="F191" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G191" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="F192" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G192" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="F193" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G193" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="F194" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="G194" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="F195" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G195" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="F196" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G196" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="F197" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G156" s="6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
-      <c r="F157" s="5" t="s">
+      <c r="G197" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="F198" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G198" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="F199" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G199" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="F200" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G200" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="F201" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G201" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="F202" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G202" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="F203" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="F204" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G204" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="F205" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G205" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="F206" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="F207" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="F208" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="F209" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="F210" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="F211" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="F212" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G212" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="F213" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="G213" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
+      <c r="F214" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="F215" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G215" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G157" s="6" t="s">
+    </row>
+    <row r="216" spans="1:12">
+      <c r="F216" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
+      <c r="F217" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G217" s="6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
+      <c r="F218" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
+      <c r="F219" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G219" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
+      <c r="F220" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
+      <c r="F221" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G221" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
+      <c r="F222" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
+      <c r="F223" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G223" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
+      <c r="F224" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G224" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
+      <c r="F225" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G225" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
+      <c r="F226" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G226" s="6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
+      <c r="F227" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G227" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
+      <c r="F228" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G228" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="F229" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="G229" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
+      <c r="F230" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G230" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
+      <c r="F231" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G231" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
+      <c r="F232" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G232" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
+      <c r="F233" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G233" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
+      <c r="F234" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
+      <c r="F235" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G235" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
-      <c r="F158" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G158" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
-      <c r="F159" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G159" s="6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
-      <c r="F160" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G160" s="6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12">
-      <c r="F161" s="7" t="s">
+    <row r="236" spans="1:12">
+      <c r="F236" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G236" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
+      <c r="F237" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G237" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
+      <c r="F238" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="G238" s="6" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
+      <c r="F239" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G239" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
+      <c r="F240" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G240" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
+      <c r="F241" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G241" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
+      <c r="F242" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G242" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G161" s="8" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12"/>
-    <row r="163" spans="1:12"/>
-    <row r="164" spans="1:12"/>
-    <row r="165" spans="1:12"/>
-    <row r="166" spans="1:12"/>
-    <row r="167" spans="1:12"/>
-    <row r="168" spans="1:12"/>
-    <row r="169" spans="1:12"/>
+    </row>
+    <row r="243" spans="1:12">
+      <c r="F243" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G243" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12">
+      <c r="F244" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G244" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12">
+      <c r="F245" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G245" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12"/>
+    <row r="247" spans="1:12"/>
+    <row r="248" spans="1:12"/>
+    <row r="249" spans="1:12"/>
+    <row r="250" spans="1:12"/>
+    <row r="251" spans="1:12"/>
+    <row r="252" spans="1:12"/>
+    <row r="253" spans="1:12"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
